--- a/biology/Médecine/Version_par_manœuvre_externe/Version_par_manœuvre_externe.xlsx
+++ b/biology/Médecine/Version_par_manœuvre_externe/Version_par_manœuvre_externe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Version_par_man%C5%93uvre_externe</t>
+          <t>Version_par_manœuvre_externe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La version par manœuvre externe VME est une technique obstétricale. Elle consiste à faire passer une présentation en siège ou transverse du fœtus à une présentation céphalique.  Son but est de diminuer le taux de césariennes en cas de présentation du siège et de limiter les risques de l'accouchement par les fesses (accouchement « par le siège »). La VME est le plus souvent réalisée à la fin du huitième mois de grossesse mais peut être également réalisée plus tard lors de la découverte d'une présentation du siège à terme.  En France, une feuille d'information et de consentement[1] doit être remise à la patiente.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La version par manœuvre externe VME est une technique obstétricale. Elle consiste à faire passer une présentation en siège ou transverse du fœtus à une présentation céphalique.  Son but est de diminuer le taux de césariennes en cas de présentation du siège et de limiter les risques de l'accouchement par les fesses (accouchement « par le siège »). La VME est le plus souvent réalisée à la fin du huitième mois de grossesse mais peut être également réalisée plus tard lors de la découverte d'une présentation du siège à terme.  En France, une feuille d'information et de consentement doit être remise à la patiente.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Version_par_man%C5%93uvre_externe</t>
+          <t>Version_par_manœuvre_externe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette manœuvre est pratiquée dès que les petits moyens pour accélérer la version spontanée du fœtus comme l'acupuncture, le pont passif, la version indienne ou la position genu-pectorale n'ont pas fonctionné. Elle doit être proposée systématiquement dès 36 semaines de grossesse lorsque le fœtus n'a pas fait sa version naturelle. Elle a une certaine efficacité, même si elle comporte un taux d'échecs[2], plus élevée chez la nullipare (deux tiers d'échecs[3]). Elle est refusée cependant par un certain nombre de patientes[4], préférant une césarienne.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette manœuvre est pratiquée dès que les petits moyens pour accélérer la version spontanée du fœtus comme l'acupuncture, le pont passif, la version indienne ou la position genu-pectorale n'ont pas fonctionné. Elle doit être proposée systématiquement dès 36 semaines de grossesse lorsque le fœtus n'a pas fait sa version naturelle. Elle a une certaine efficacité, même si elle comporte un taux d'échecs, plus élevée chez la nullipare (deux tiers d'échecs). Elle est refusée cependant par un certain nombre de patientes, préférant une césarienne.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Version_par_man%C5%93uvre_externe</t>
+          <t>Version_par_manœuvre_externe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Contre-indications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Fœtus est en présentation podalique en raison d'une malformation utérine,
 En cas de placenta inséré bas,
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Version_par_man%C5%93uvre_externe</t>
+          <t>Version_par_manœuvre_externe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,27 +592,133 @@
           <t>Mise en œuvre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Elle doit être faite entre la 36e et la 37e semaine d'aménorrhée.
-Précaution
-La patiente est à jeun avec une perfusion. L'injection d'un médicament tocolytique peut être faite pour faciliter la manœuvre. L'efficacité est démontrée essentiellement avec les bêta-2-mimétiques[5]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle doit être faite entre la 36e et la 37e semaine d'aménorrhée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Version_par_manœuvre_externe</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Version_par_man%C5%93uvre_externe</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Mise en œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Précaution</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La patiente est à jeun avec une perfusion. L'injection d'un médicament tocolytique peut être faite pour faciliter la manœuvre. L'efficacité est démontrée essentiellement avec les bêta-2-mimétiques. 
 Installation en salle de prétravail, proche de la salle de césarienne.
 Échographie avant la version pour s'assurer de l'absence de contre-indication et repérer la position du dos ;
 Vérification (pour certaines équipes) de l'absence de circulaire du cordon ombilical grâce au Doppler à codage couleur ;
 Mise en place d'une tocolyse de 30 minutes afin d'obtenir un relâchement utérin maximum ;
-Vérification du bien-être fœtal par 30 minutes d'enregistrement du rythme cardiaque fœtal avant le geste.
-Technique
-La main sus-pubienne permet de refouler le pôle podalique du fœtus tandis que l'autre main agit sur la tête en la repoussant dans le sens de la flexion. 
+Vérification du bien-être fœtal par 30 minutes d'enregistrement du rythme cardiaque fœtal avant le geste.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Version_par_manœuvre_externe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Version_par_man%C5%93uvre_externe</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Mise en œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Technique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La main sus-pubienne permet de refouler le pôle podalique du fœtus tandis que l'autre main agit sur la tête en la repoussant dans le sens de la flexion. 
 Que la manœuvre réussisse ou échoue, une surveillance du rythme cardiaque fœtal est réalisée pendant 2 heures suivant le geste et pendant 30 minutes le lendemain de la VME. En cas de complications rares, une césarienne peut être effectuée en urgence.
 Un test de Kleihauer est réalisé systématiquement à la recherche d'un passage de sang fœto-placentaire.
-Complications
-Elles sont rares (moins de 2 %[3]) et peuvent nécessiter une césarienne en urgence dans moins de 1 % des cas[6].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Version_par_manœuvre_externe</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Version_par_man%C5%93uvre_externe</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Mise en œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Complications</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Elles sont rares (moins de 2 %) et peuvent nécessiter une césarienne en urgence dans moins de 1 % des cas.
 Hémorragie fœto-maternelle
 Anomalie du rythme cardiaque fœtal
 Rupture prématurée de membranes
 Saignement d'origine utérine, hématome rétroplacentaire
-Mortalité périnatale exceptionnelle[7]</t>
+Mortalité périnatale exceptionnelle</t>
         </is>
       </c>
     </row>
